--- a/Code/Results/Cases/Case_2_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.33375435247634</v>
+        <v>8.870921420471129</v>
       </c>
       <c r="C2">
-        <v>7.417263760629622</v>
+        <v>4.440271573361471</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.29687037176306</v>
+        <v>12.32198667410082</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>26.00991802670003</v>
+        <v>31.9548318330852</v>
       </c>
       <c r="H2">
-        <v>9.610474255133763</v>
+        <v>15.07117146919645</v>
       </c>
       <c r="I2">
-        <v>14.30749423738159</v>
+        <v>21.67611151978054</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.25943742587142</v>
+        <v>9.001189111014824</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.55031624493785</v>
+        <v>13.87158067594262</v>
       </c>
       <c r="N2">
-        <v>12.34581159102088</v>
+        <v>18.96057001254424</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.52402355447981</v>
+        <v>8.606907451801838</v>
       </c>
       <c r="C3">
-        <v>6.933993025687786</v>
+        <v>4.190801336075801</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.4264473954678</v>
+        <v>12.1006781926643</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>25.54020241664208</v>
+        <v>31.98461888728828</v>
       </c>
       <c r="H3">
-        <v>9.656271532526652</v>
+        <v>15.1190594202505</v>
       </c>
       <c r="I3">
-        <v>14.41216171837849</v>
+        <v>21.7582661203378</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.57525569920447</v>
+        <v>8.831632129853222</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.59020036351079</v>
+        <v>13.71012614330197</v>
       </c>
       <c r="N3">
-        <v>12.57627886802859</v>
+        <v>19.02664034297902</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.99862717694871</v>
+        <v>8.44253328065043</v>
       </c>
       <c r="C4">
-        <v>6.621607158110445</v>
+        <v>4.028974843864933</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.87496070210954</v>
+        <v>11.96689197690076</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>25.28166272632221</v>
+        <v>32.01369230313371</v>
       </c>
       <c r="H4">
-        <v>9.691565506032708</v>
+        <v>15.15109970769102</v>
       </c>
       <c r="I4">
-        <v>14.48882979809696</v>
+        <v>21.81306741508694</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1331123271446</v>
+        <v>8.727837983983655</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.96947571918258</v>
+        <v>13.61362722133091</v>
       </c>
       <c r="N4">
-        <v>12.72062131749838</v>
+        <v>19.06905943395833</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.77739612283332</v>
+        <v>8.375089973111404</v>
       </c>
       <c r="C5">
-        <v>6.49035042896266</v>
+        <v>3.960874587790245</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.64612295796822</v>
+        <v>11.91298060753073</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>25.18366329296756</v>
+        <v>32.02824113243551</v>
       </c>
       <c r="H5">
-        <v>9.707673091257009</v>
+        <v>15.16481862755806</v>
       </c>
       <c r="I5">
-        <v>14.52303817643725</v>
+        <v>21.83649308554101</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.947402271913139</v>
+        <v>8.685679897076406</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.70862924915636</v>
+        <v>13.57501084736904</v>
       </c>
       <c r="N5">
-        <v>12.78018520504593</v>
+        <v>19.08681259651002</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.74022954531381</v>
+        <v>8.363866690458353</v>
       </c>
       <c r="C6">
-        <v>6.468315878462762</v>
+        <v>3.949437166472746</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.60788321629492</v>
+        <v>11.90406768888711</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>25.16782986284958</v>
+        <v>32.03081975458925</v>
       </c>
       <c r="H6">
-        <v>9.710449678088837</v>
+        <v>15.1671366172839</v>
       </c>
       <c r="I6">
-        <v>14.52889322697745</v>
+        <v>21.84044889358224</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.916231695775485</v>
+        <v>8.678689728165418</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.66483775508744</v>
+        <v>13.5686426633367</v>
       </c>
       <c r="N6">
-        <v>12.79012148883741</v>
+        <v>19.08978874560153</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.99567247626313</v>
+        <v>8.441625425341922</v>
       </c>
       <c r="C7">
-        <v>6.619853028242114</v>
+        <v>4.028065112891142</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.87189084703006</v>
+        <v>11.9661623439039</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>25.28031150593534</v>
+        <v>32.01387759214375</v>
       </c>
       <c r="H7">
-        <v>9.69177585623426</v>
+        <v>15.15128204556481</v>
       </c>
       <c r="I7">
-        <v>14.48927933385443</v>
+        <v>21.81337891642343</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.13063015373627</v>
+        <v>8.727268783455171</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.96598988090554</v>
+        <v>13.61310350330114</v>
       </c>
       <c r="N7">
-        <v>12.72142156874124</v>
+        <v>19.06929696641734</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.06039494531537</v>
+        <v>8.780424576410187</v>
       </c>
       <c r="C8">
-        <v>7.253867454602315</v>
+        <v>4.356060506969049</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.00038037449153</v>
+        <v>12.24529219237578</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>25.84167861543915</v>
+        <v>31.96285837902327</v>
       </c>
       <c r="H8">
-        <v>9.624727648722068</v>
+        <v>15.08713545526357</v>
       </c>
       <c r="I8">
-        <v>14.34091527320119</v>
+        <v>21.70353261597421</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.02811213580392</v>
+        <v>8.942696173544499</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.22571394705302</v>
+        <v>13.81539183097366</v>
       </c>
       <c r="N8">
-        <v>12.4247071793363</v>
+        <v>18.98296761868388</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.92612865259184</v>
+        <v>9.422307578289466</v>
       </c>
       <c r="C9">
-        <v>8.374142150675283</v>
+        <v>4.929956625939745</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.21145843515966</v>
+        <v>12.80578991079757</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>27.18482961128329</v>
+        <v>31.94876431683474</v>
       </c>
       <c r="H9">
-        <v>9.553868487896839</v>
+        <v>14.98230345734545</v>
       </c>
       <c r="I9">
-        <v>14.15560542748376</v>
+        <v>21.52280012184904</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.61318850787035</v>
+        <v>9.36507163857307</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.45104011345489</v>
+        <v>14.23093701644065</v>
       </c>
       <c r="N9">
-        <v>11.8638800717926</v>
+        <v>18.82830151417549</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.16414787571689</v>
+        <v>9.874700020398587</v>
       </c>
       <c r="C10">
-        <v>9.124221812860688</v>
+        <v>5.308740668031085</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.80658575448383</v>
+        <v>13.22092472769101</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>28.32485784205409</v>
+        <v>31.9912141614252</v>
       </c>
       <c r="H10">
-        <v>9.544072838037652</v>
+        <v>14.9181106682417</v>
       </c>
       <c r="I10">
-        <v>14.09431938690849</v>
+        <v>21.41128731895587</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.67204471045661</v>
+        <v>9.672008901580229</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.94090450873961</v>
+        <v>14.54493089021912</v>
       </c>
       <c r="N10">
-        <v>11.46248364493166</v>
+        <v>18.72348957618331</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.69920269219484</v>
+        <v>10.07533524797531</v>
       </c>
       <c r="C11">
-        <v>9.45013136764593</v>
+        <v>5.471685562748968</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.50258524893279</v>
+        <v>13.40955049165066</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>28.87752653443562</v>
+        <v>32.02203535977183</v>
       </c>
       <c r="H11">
-        <v>9.550004479284823</v>
+        <v>14.89170359383026</v>
       </c>
       <c r="I11">
-        <v>14.08510280307141</v>
+        <v>21.3652044661152</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.13117052728061</v>
+        <v>9.810243249125389</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.588261181166</v>
+        <v>14.68905907794106</v>
       </c>
       <c r="N11">
-        <v>11.28167104175228</v>
+        <v>18.67770307797397</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.89782876590309</v>
+        <v>10.15049564455571</v>
       </c>
       <c r="C12">
-        <v>9.571392509431334</v>
+        <v>5.532038688596482</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.76200987015296</v>
+        <v>13.48087036255887</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>29.09175101839119</v>
+        <v>32.03536174458659</v>
       </c>
       <c r="H12">
-        <v>9.55384876404144</v>
+        <v>14.88210665395329</v>
       </c>
       <c r="I12">
-        <v>14.08450509442446</v>
+        <v>21.34842440026158</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.30182605533716</v>
+        <v>9.862336682606488</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.82912650705101</v>
+        <v>14.74377202557997</v>
       </c>
       <c r="N12">
-        <v>11.2134127907051</v>
+        <v>18.66063563181177</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.85522748352123</v>
+        <v>10.13434588695462</v>
       </c>
       <c r="C13">
-        <v>9.545371740141332</v>
+        <v>5.519100671334506</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.70631992426862</v>
+        <v>13.46551637049609</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>29.04539355174376</v>
+        <v>32.0324180853912</v>
       </c>
       <c r="H13">
-        <v>9.552948053565361</v>
+        <v>14.88415559433387</v>
       </c>
       <c r="I13">
-        <v>14.08450178159815</v>
+        <v>21.35200842557335</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.26521422447684</v>
+        <v>9.851129485384364</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.77744035214948</v>
+        <v>14.73198342429977</v>
       </c>
       <c r="N13">
-        <v>11.22810476978556</v>
+        <v>18.66429938365529</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.71562335453517</v>
+        <v>10.08153548504389</v>
       </c>
       <c r="C14">
-        <v>9.460150472120569</v>
+        <v>5.476677933460897</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.52401038321209</v>
+        <v>13.41542062529051</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>28.8950516577652</v>
+        <v>32.02309856813785</v>
       </c>
       <c r="H14">
-        <v>9.550288112363898</v>
+        <v>14.89090596854501</v>
       </c>
       <c r="I14">
-        <v>14.08499444003712</v>
+        <v>21.363810507232</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.14527446218636</v>
+        <v>9.814534367239677</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.60816240868958</v>
+        <v>14.69355793399462</v>
       </c>
       <c r="N14">
-        <v>11.2760514241583</v>
+        <v>18.67629350694149</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.62959425674993</v>
+        <v>10.04907928501356</v>
       </c>
       <c r="C15">
-        <v>9.407670983850329</v>
+        <v>5.450516816126616</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.41180592394707</v>
+        <v>13.38471916697882</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>28.80360755170674</v>
+        <v>32.01760559133028</v>
       </c>
       <c r="H15">
-        <v>9.548870098634685</v>
+        <v>14.89509325931277</v>
       </c>
       <c r="I15">
-        <v>14.08567920202552</v>
+        <v>21.37112701966856</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.07139168502421</v>
+        <v>9.792084350979934</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.50392107977284</v>
+        <v>14.67003725838905</v>
       </c>
       <c r="N15">
-        <v>11.30544629266665</v>
+        <v>18.68367549543469</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.1286195853063</v>
+        <v>9.861477720369841</v>
       </c>
       <c r="C16">
-        <v>9.102618799793898</v>
+        <v>5.297903006911531</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.7605147618947</v>
+        <v>13.20858650026799</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>28.28942883136465</v>
+        <v>31.98943158406126</v>
       </c>
       <c r="H16">
-        <v>9.543903059794008</v>
+        <v>14.91989275140764</v>
       </c>
       <c r="I16">
-        <v>14.09531493266472</v>
+        <v>21.41439262967437</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.64158899279431</v>
+        <v>9.66294237060697</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.89799466956218</v>
+        <v>14.53553338497178</v>
       </c>
       <c r="N16">
-        <v>11.47433230522535</v>
+        <v>18.72651981162937</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81412323432523</v>
+        <v>9.745013671030962</v>
       </c>
       <c r="C17">
-        <v>8.911591188358097</v>
+        <v>5.201877282372823</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.35346505783657</v>
+        <v>13.10042250728402</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>27.98275335108528</v>
+        <v>31.9750964747441</v>
       </c>
       <c r="H17">
-        <v>9.543589628168872</v>
+        <v>14.93582289935346</v>
       </c>
       <c r="I17">
-        <v>14.10615232464714</v>
+        <v>21.44212618678992</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.37216714766617</v>
+        <v>9.583322860399697</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.51856008197623</v>
+        <v>14.45331383726563</v>
       </c>
       <c r="N17">
-        <v>11.57836442201148</v>
+        <v>18.75328732001956</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.63058220330828</v>
+        <v>9.67754483305111</v>
       </c>
       <c r="C18">
-        <v>8.800273434048634</v>
+        <v>5.145764361786235</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.1165435031693</v>
+        <v>13.03819302784176</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>27.80956602186161</v>
+        <v>31.96793487445734</v>
       </c>
       <c r="H18">
-        <v>9.544380630566215</v>
+        <v>14.94524847664447</v>
       </c>
       <c r="I18">
-        <v>14.11412937491187</v>
+        <v>21.45851483967664</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.21507731282091</v>
+        <v>9.537399686410884</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.29745265984313</v>
+        <v>14.40614784180427</v>
       </c>
       <c r="N18">
-        <v>11.63837180594539</v>
+        <v>18.76886153596048</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.56798137628946</v>
+        <v>9.654620665382406</v>
       </c>
       <c r="C19">
-        <v>8.762333831602238</v>
+        <v>5.126614243829431</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.03584185106759</v>
+        <v>13.01712276983688</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>27.75147673493985</v>
+        <v>31.96569615285523</v>
       </c>
       <c r="H19">
-        <v>9.544812146274175</v>
+        <v>14.94848495128789</v>
       </c>
       <c r="I19">
-        <v>14.11712350257036</v>
+        <v>21.46413873988303</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.16152330031435</v>
+        <v>9.521830530022916</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.22209435850927</v>
+        <v>14.39020119146116</v>
       </c>
       <c r="N19">
-        <v>11.65871994240437</v>
+        <v>18.77416535285337</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.84787588173579</v>
+        <v>9.757461890148852</v>
       </c>
       <c r="C20">
-        <v>8.932075496581266</v>
+        <v>5.212190645858293</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.39708483324803</v>
+        <v>13.11193901429374</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>28.01506752642774</v>
+        <v>31.97651031953264</v>
       </c>
       <c r="H20">
-        <v>9.543521724935248</v>
+        <v>14.93409988345104</v>
       </c>
       <c r="I20">
-        <v>14.10481671358243</v>
+        <v>21.43912865106198</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.40106729477622</v>
+        <v>9.591812144985431</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.55924756751986</v>
+        <v>14.46205373230363</v>
       </c>
       <c r="N20">
-        <v>11.56727265835805</v>
+        <v>18.75041943396646</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.75673621806133</v>
+        <v>10.09706987190336</v>
       </c>
       <c r="C21">
-        <v>9.485240077112481</v>
+        <v>5.489175195246342</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.57767028374193</v>
+        <v>13.43013850342129</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>28.93907630052695</v>
+        <v>32.02579103030895</v>
       </c>
       <c r="H21">
-        <v>9.551025180509713</v>
+        <v>14.88891227904474</v>
       </c>
       <c r="I21">
-        <v>14.08476953625245</v>
+        <v>21.36032573179125</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.18059033858853</v>
+        <v>9.825290509679277</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.65799865230359</v>
+        <v>14.70484117766107</v>
       </c>
       <c r="N21">
-        <v>11.26196296324195</v>
+        <v>18.67276320016653</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.32751581111953</v>
+        <v>10.31423912839042</v>
       </c>
       <c r="C22">
-        <v>9.834236727333488</v>
+        <v>5.662327893341002</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.32521452211365</v>
+        <v>13.63743397375628</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>29.57178750968475</v>
+        <v>32.06764418673564</v>
       </c>
       <c r="H22">
-        <v>9.565294976391439</v>
+        <v>14.86172811140488</v>
       </c>
       <c r="I22">
-        <v>14.08862851043923</v>
+        <v>21.31273290389838</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.67139216506646</v>
+        <v>9.976385576747543</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.35123084192471</v>
+        <v>14.86427904528561</v>
       </c>
       <c r="N22">
-        <v>11.06363525105414</v>
+        <v>18.62358881941919</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.02498408944157</v>
+        <v>10.19879201997297</v>
       </c>
       <c r="C23">
-        <v>9.649100196224699</v>
+        <v>5.570634195711619</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.92839076432871</v>
+        <v>13.52688194880871</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>29.23144721581101</v>
+        <v>32.04442443563521</v>
       </c>
       <c r="H23">
-        <v>9.556786555806413</v>
+        <v>14.87602159755586</v>
       </c>
       <c r="I23">
-        <v>14.08494619248606</v>
+        <v>21.33777552890328</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.41113531102137</v>
+        <v>9.895896867988661</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.98348116304932</v>
+        <v>14.7791309373424</v>
       </c>
       <c r="N23">
-        <v>11.16939153626129</v>
+        <v>18.64969011007286</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83262482644195</v>
+        <v>9.751835639683891</v>
       </c>
       <c r="C24">
-        <v>8.922819196065536</v>
+        <v>5.207530797376331</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.37737338515102</v>
+        <v>13.10673253440134</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>28.00044855885519</v>
+        <v>31.97586775660572</v>
       </c>
       <c r="H24">
-        <v>9.543549406781789</v>
+        <v>14.93487802691051</v>
       </c>
       <c r="I24">
-        <v>14.10541511914594</v>
+        <v>21.44048245326716</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.38800837992597</v>
+        <v>9.587974599029888</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.54086199905571</v>
+        <v>14.45810210066228</v>
       </c>
       <c r="N24">
-        <v>11.57228662481619</v>
+        <v>18.75171542817158</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.444920493427</v>
+        <v>9.251666839197819</v>
       </c>
       <c r="C25">
-        <v>8.084058396973468</v>
+        <v>4.782197271220864</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.59699087065115</v>
+        <v>12.65324251033029</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>26.79487377836502</v>
+        <v>31.94332526726306</v>
       </c>
       <c r="H25">
-        <v>9.566012921654531</v>
+        <v>15.00841425476486</v>
       </c>
       <c r="I25">
-        <v>14.19337805634957</v>
+        <v>21.56796711504038</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.20304599733676</v>
+        <v>9.251168032886321</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.87484739246054</v>
+        <v>14.11678954883302</v>
       </c>
       <c r="N25">
-        <v>12.01356374954469</v>
+        <v>18.86858687676363</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.870921420471129</v>
+        <v>12.33375435247644</v>
       </c>
       <c r="C2">
-        <v>4.440271573361471</v>
+        <v>7.417263760629515</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.32198667410082</v>
+        <v>14.29687037176305</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>31.9548318330852</v>
+        <v>26.00991802670004</v>
       </c>
       <c r="H2">
-        <v>15.07117146919645</v>
+        <v>9.610474255133667</v>
       </c>
       <c r="I2">
-        <v>21.67611151978054</v>
+        <v>14.30749423738149</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.001189111014824</v>
+        <v>11.25943742587147</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.87158067594262</v>
+        <v>14.5503162449379</v>
       </c>
       <c r="N2">
-        <v>18.96057001254424</v>
+        <v>12.34581159102086</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.606907451801838</v>
+        <v>11.52402355447976</v>
       </c>
       <c r="C3">
-        <v>4.190801336075801</v>
+        <v>6.933993025687695</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.1006781926643</v>
+        <v>13.42644739546777</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>31.98461888728828</v>
+        <v>25.5402024166423</v>
       </c>
       <c r="H3">
-        <v>15.1190594202505</v>
+        <v>9.656271532526652</v>
       </c>
       <c r="I3">
-        <v>21.7582661203378</v>
+        <v>14.41216171837854</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.831632129853222</v>
+        <v>10.57525569920435</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.71012614330197</v>
+        <v>13.59020036351079</v>
       </c>
       <c r="N3">
-        <v>19.02664034297902</v>
+        <v>12.57627886802852</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.44253328065043</v>
+        <v>10.99862717694876</v>
       </c>
       <c r="C4">
-        <v>4.028974843864933</v>
+        <v>6.621607158110432</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.96689197690076</v>
+        <v>12.87496070210955</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>32.01369230313371</v>
+        <v>25.28166272632205</v>
       </c>
       <c r="H4">
-        <v>15.15109970769102</v>
+        <v>9.691565506032546</v>
       </c>
       <c r="I4">
-        <v>21.81306741508694</v>
+        <v>14.48882979809687</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.727837983983655</v>
+        <v>10.13311232714465</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.61362722133091</v>
+        <v>12.9694757191826</v>
       </c>
       <c r="N4">
-        <v>19.06905943395833</v>
+        <v>12.72062131749831</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.375089973111404</v>
+        <v>10.77739612283345</v>
       </c>
       <c r="C5">
-        <v>3.960874587790245</v>
+        <v>6.490350428962582</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.91298060753073</v>
+        <v>12.64612295796823</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>32.02824113243551</v>
+        <v>25.18366329296759</v>
       </c>
       <c r="H5">
-        <v>15.16481862755806</v>
+        <v>9.707673091257</v>
       </c>
       <c r="I5">
-        <v>21.83649308554101</v>
+        <v>14.52303817643723</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.685679897076406</v>
+        <v>9.947402271913173</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.57501084736904</v>
+        <v>12.70862924915638</v>
       </c>
       <c r="N5">
-        <v>19.08681259651002</v>
+        <v>12.78018520504596</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.363866690458353</v>
+        <v>10.74022954531382</v>
       </c>
       <c r="C6">
-        <v>3.949437166472746</v>
+        <v>6.468315878462873</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.90406768888711</v>
+        <v>12.60788321629493</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>32.03081975458925</v>
+        <v>25.16782986284943</v>
       </c>
       <c r="H6">
-        <v>15.1671366172839</v>
+        <v>9.710449678088846</v>
       </c>
       <c r="I6">
-        <v>21.84044889358224</v>
+        <v>14.52889322697746</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.678689728165418</v>
+        <v>9.916231695775544</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.5686426633367</v>
+        <v>12.66483775508749</v>
       </c>
       <c r="N6">
-        <v>19.08978874560153</v>
+        <v>12.79012148883741</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.441625425341922</v>
+        <v>10.9956724762633</v>
       </c>
       <c r="C7">
-        <v>4.028065112891142</v>
+        <v>6.619853028242034</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.9661623439039</v>
+        <v>12.87189084703008</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>32.01387759214375</v>
+        <v>25.28031150593529</v>
       </c>
       <c r="H7">
-        <v>15.15128204556481</v>
+        <v>9.691775856234216</v>
       </c>
       <c r="I7">
-        <v>21.81337891642343</v>
+        <v>14.48927933385433</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.727268783455171</v>
+        <v>10.13063015373636</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.61310350330114</v>
+        <v>12.96598988090555</v>
       </c>
       <c r="N7">
-        <v>19.06929696641734</v>
+        <v>12.72142156874124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.780424576410187</v>
+        <v>12.06039494531542</v>
       </c>
       <c r="C8">
-        <v>4.356060506969049</v>
+        <v>7.253867454602221</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.24529219237578</v>
+        <v>14.00038037449153</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>31.96285837902327</v>
+        <v>25.84167861543927</v>
       </c>
       <c r="H8">
-        <v>15.08713545526357</v>
+        <v>9.624727648722077</v>
       </c>
       <c r="I8">
-        <v>21.70353261597421</v>
+        <v>14.3409152732012</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.942696173544499</v>
+        <v>11.02811213580393</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.81539183097366</v>
+        <v>14.22571394705304</v>
       </c>
       <c r="N8">
-        <v>18.98296761868388</v>
+        <v>12.42470717933633</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.422307578289466</v>
+        <v>13.92612865259182</v>
       </c>
       <c r="C9">
-        <v>4.929956625939745</v>
+        <v>8.37414215067527</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.80578991079757</v>
+        <v>16.21145843515971</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>31.94876431683474</v>
+        <v>27.18482961128343</v>
       </c>
       <c r="H9">
-        <v>14.98230345734545</v>
+        <v>9.553868487896839</v>
       </c>
       <c r="I9">
-        <v>21.52280012184904</v>
+        <v>14.15560542748381</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.36507163857307</v>
+        <v>12.61318850787032</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.23093701644065</v>
+        <v>16.45104011345491</v>
       </c>
       <c r="N9">
-        <v>18.82830151417549</v>
+        <v>11.8638800717926</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.874700020398587</v>
+        <v>15.16414787571701</v>
       </c>
       <c r="C10">
-        <v>5.308740668031085</v>
+        <v>9.124221812860611</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.22092472769101</v>
+        <v>17.80658575448387</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>31.9912141614252</v>
+        <v>28.32485784205407</v>
       </c>
       <c r="H10">
-        <v>14.9181106682417</v>
+        <v>9.544072838037577</v>
       </c>
       <c r="I10">
-        <v>21.41128731895587</v>
+        <v>14.09431938690843</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.672008901580229</v>
+        <v>13.6720447104567</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.54493089021912</v>
+        <v>17.94090450873967</v>
       </c>
       <c r="N10">
-        <v>18.72348957618331</v>
+        <v>11.46248364493163</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.07533524797531</v>
+        <v>15.69920269219481</v>
       </c>
       <c r="C11">
-        <v>5.471685562748968</v>
+        <v>9.450131367645854</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.40955049165066</v>
+        <v>18.50258524893281</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>32.02203535977183</v>
+        <v>28.87752653443577</v>
       </c>
       <c r="H11">
-        <v>14.89170359383026</v>
+        <v>9.550004479284823</v>
       </c>
       <c r="I11">
-        <v>21.3652044661152</v>
+        <v>14.08510280307144</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.810243249125389</v>
+        <v>14.13117052728056</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.68905907794106</v>
+        <v>18.58826118116598</v>
       </c>
       <c r="N11">
-        <v>18.67770307797397</v>
+        <v>11.28167104175228</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.15049564455571</v>
+        <v>15.89782876590306</v>
       </c>
       <c r="C12">
-        <v>5.532038688596482</v>
+        <v>9.571392509431154</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.48087036255887</v>
+        <v>18.76200987015294</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>32.03536174458659</v>
+        <v>29.09175101839124</v>
       </c>
       <c r="H12">
-        <v>14.88210665395329</v>
+        <v>9.553848764041566</v>
       </c>
       <c r="I12">
-        <v>21.34842440026158</v>
+        <v>14.08450509442458</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.862336682606488</v>
+        <v>14.3018260553371</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.74377202557997</v>
+        <v>18.82912650705099</v>
       </c>
       <c r="N12">
-        <v>18.66063563181177</v>
+        <v>11.21341279070517</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.13434588695462</v>
+        <v>15.85522748352125</v>
       </c>
       <c r="C13">
-        <v>5.519100671334506</v>
+        <v>9.545371740141311</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.46551637049609</v>
+        <v>18.70631992426862</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>32.0324180853912</v>
+        <v>29.04539355174377</v>
       </c>
       <c r="H13">
-        <v>14.88415559433387</v>
+        <v>9.552948053565366</v>
       </c>
       <c r="I13">
-        <v>21.35200842557335</v>
+        <v>14.08450178159816</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.851129485384364</v>
+        <v>14.26521422447684</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.73198342429977</v>
+        <v>18.77744035214948</v>
       </c>
       <c r="N13">
-        <v>18.66429938365529</v>
+        <v>11.22810476978556</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.08153548504389</v>
+        <v>15.71562335453515</v>
       </c>
       <c r="C14">
-        <v>5.476677933460897</v>
+        <v>9.460150472120707</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.41542062529051</v>
+        <v>18.52401038321207</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>32.02309856813785</v>
+        <v>28.89505165776525</v>
       </c>
       <c r="H14">
-        <v>14.89090596854501</v>
+        <v>9.550288112363949</v>
       </c>
       <c r="I14">
-        <v>21.363810507232</v>
+        <v>14.08499444003722</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.814534367239677</v>
+        <v>14.14527446218637</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.69355793399462</v>
+        <v>18.60816240868956</v>
       </c>
       <c r="N14">
-        <v>18.67629350694149</v>
+        <v>11.27605142415833</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.04907928501356</v>
+        <v>15.62959425674987</v>
       </c>
       <c r="C15">
-        <v>5.450516816126616</v>
+        <v>9.407670983850265</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.38471916697882</v>
+        <v>18.41180592394706</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>32.01760559133028</v>
+        <v>28.80360755170688</v>
       </c>
       <c r="H15">
-        <v>14.89509325931277</v>
+        <v>9.548870098634861</v>
       </c>
       <c r="I15">
-        <v>21.37112701966856</v>
+        <v>14.08567920202574</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.792084350979934</v>
+        <v>14.07139168502416</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.67003725838905</v>
+        <v>18.50392107977277</v>
       </c>
       <c r="N15">
-        <v>18.68367549543469</v>
+        <v>11.30544629266682</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.861477720369841</v>
+        <v>15.12861958530622</v>
       </c>
       <c r="C16">
-        <v>5.297903006911531</v>
+        <v>9.102618799794024</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.20858650026799</v>
+        <v>17.76051476189471</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>31.98943158406126</v>
+        <v>28.28942883136467</v>
       </c>
       <c r="H16">
-        <v>14.91989275140764</v>
+        <v>9.543903059794063</v>
       </c>
       <c r="I16">
-        <v>21.41439262967437</v>
+        <v>14.09531493266474</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.66294237060697</v>
+        <v>13.64158899279431</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.53553338497178</v>
+        <v>17.89799466956217</v>
       </c>
       <c r="N16">
-        <v>18.72651981162937</v>
+        <v>11.47433230522535</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.745013671030962</v>
+        <v>14.81412323432519</v>
       </c>
       <c r="C17">
-        <v>5.201877282372823</v>
+        <v>8.911591188358083</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.10042250728402</v>
+        <v>17.35346505783661</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>31.9750964747441</v>
+        <v>27.98275335108538</v>
       </c>
       <c r="H17">
-        <v>14.93582289935346</v>
+        <v>9.543589628168931</v>
       </c>
       <c r="I17">
-        <v>21.44212618678992</v>
+        <v>14.10615232464726</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.583322860399697</v>
+        <v>13.37216714766615</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.45331383726563</v>
+        <v>17.51856008197623</v>
       </c>
       <c r="N17">
-        <v>18.75328732001956</v>
+        <v>11.57836442201154</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.67754483305111</v>
+        <v>14.63058220330819</v>
       </c>
       <c r="C18">
-        <v>5.145764361786235</v>
+        <v>8.800273434049</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.03819302784176</v>
+        <v>17.11654350316925</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>31.96793487445734</v>
+        <v>27.80956602186161</v>
       </c>
       <c r="H18">
-        <v>14.94524847664447</v>
+        <v>9.544380630566272</v>
       </c>
       <c r="I18">
-        <v>21.45851483967664</v>
+        <v>14.114129374912</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.537399686410884</v>
+        <v>13.21507731282097</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.40614784180427</v>
+        <v>17.29745265984312</v>
       </c>
       <c r="N18">
-        <v>18.76886153596048</v>
+        <v>11.63837180594546</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.654620665382406</v>
+        <v>14.56798137628943</v>
       </c>
       <c r="C19">
-        <v>5.126614243829431</v>
+        <v>8.762333831602332</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.01712276983688</v>
+        <v>17.03584185106757</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>31.96569615285523</v>
+        <v>27.75147673493996</v>
       </c>
       <c r="H19">
-        <v>14.94848495128789</v>
+        <v>9.544812146274204</v>
       </c>
       <c r="I19">
-        <v>21.46413873988303</v>
+        <v>14.11712350257043</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.521830530022916</v>
+        <v>13.16152330031435</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.39020119146116</v>
+        <v>17.22209435850927</v>
       </c>
       <c r="N19">
-        <v>18.77416535285337</v>
+        <v>11.65871994240437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.757461890148852</v>
+        <v>14.84787588173579</v>
       </c>
       <c r="C20">
-        <v>5.212190645858293</v>
+        <v>8.932075496581266</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.11193901429374</v>
+        <v>17.39708483324801</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>31.97651031953264</v>
+        <v>28.01506752642787</v>
       </c>
       <c r="H20">
-        <v>14.93409988345104</v>
+        <v>9.543521724935369</v>
       </c>
       <c r="I20">
-        <v>21.43912865106198</v>
+        <v>14.1048167135826</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.591812144985431</v>
+        <v>13.40106729477619</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.46205373230363</v>
+        <v>17.55924756751984</v>
       </c>
       <c r="N20">
-        <v>18.75041943396646</v>
+        <v>11.56727265835815</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.09706987190336</v>
+        <v>15.75673621806129</v>
       </c>
       <c r="C21">
-        <v>5.489175195246342</v>
+        <v>9.485240077112469</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.43013850342129</v>
+        <v>18.57767028374189</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>32.02579103030895</v>
+        <v>28.9390763005271</v>
       </c>
       <c r="H21">
-        <v>14.88891227904474</v>
+        <v>9.551025180509859</v>
       </c>
       <c r="I21">
-        <v>21.36032573179125</v>
+        <v>14.08476953625259</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.825290509679277</v>
+        <v>14.18059033858852</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.70484117766107</v>
+        <v>18.65799865230354</v>
       </c>
       <c r="N21">
-        <v>18.67276320016653</v>
+        <v>11.26196296324202</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.31423912839042</v>
+        <v>16.32751581111949</v>
       </c>
       <c r="C22">
-        <v>5.662327893341002</v>
+        <v>9.834236727333723</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.63743397375628</v>
+        <v>19.32521452211356</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.06764418673564</v>
+        <v>29.57178750968485</v>
       </c>
       <c r="H22">
-        <v>14.86172811140488</v>
+        <v>9.565294976391547</v>
       </c>
       <c r="I22">
-        <v>21.31273290389838</v>
+        <v>14.08862851043939</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.976385576747543</v>
+        <v>14.67139216506647</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.86427904528561</v>
+        <v>19.35123084192466</v>
       </c>
       <c r="N22">
-        <v>18.62358881941919</v>
+        <v>11.06363525105418</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.19879201997297</v>
+        <v>16.02498408944163</v>
       </c>
       <c r="C23">
-        <v>5.570634195711619</v>
+        <v>9.649100196224561</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.52688194880871</v>
+        <v>18.92839076432873</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>32.04442443563521</v>
+        <v>29.23144721581101</v>
       </c>
       <c r="H23">
-        <v>14.87602159755586</v>
+        <v>9.556786555806418</v>
       </c>
       <c r="I23">
-        <v>21.33777552890328</v>
+        <v>14.08494619248601</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.895896867988661</v>
+        <v>14.41113531102137</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.7791309373424</v>
+        <v>18.98348116304933</v>
       </c>
       <c r="N23">
-        <v>18.64969011007286</v>
+        <v>11.16939153626129</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.751835639683891</v>
+        <v>14.83262482644194</v>
       </c>
       <c r="C24">
-        <v>5.207530797376331</v>
+        <v>8.922819196065568</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.10673253440134</v>
+        <v>17.37737338515102</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>31.97586775660572</v>
+        <v>28.00044855885518</v>
       </c>
       <c r="H24">
-        <v>14.93487802691051</v>
+        <v>9.543549406781796</v>
       </c>
       <c r="I24">
-        <v>21.44048245326716</v>
+        <v>14.105415119146</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.587974599029888</v>
+        <v>13.38800837992597</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.45810210066228</v>
+        <v>17.54086199905571</v>
       </c>
       <c r="N24">
-        <v>18.75171542817158</v>
+        <v>11.57228662481619</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.251666839197819</v>
+        <v>13.44492049342701</v>
       </c>
       <c r="C25">
-        <v>4.782197271220864</v>
+        <v>8.084058396973315</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.65324251033029</v>
+        <v>15.59699087065118</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>31.94332526726306</v>
+        <v>26.79487377836521</v>
       </c>
       <c r="H25">
-        <v>15.00841425476486</v>
+        <v>9.566012921654584</v>
       </c>
       <c r="I25">
-        <v>21.56796711504038</v>
+        <v>14.19337805634964</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.251168032886321</v>
+        <v>12.20304599733674</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.11678954883302</v>
+        <v>15.87484739246054</v>
       </c>
       <c r="N25">
-        <v>18.86858687676363</v>
+        <v>12.01356374954473</v>
       </c>
       <c r="O25">
         <v>0</v>
